--- a/excel/write.xlsx
+++ b/excel/write.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K237"/>
+  <dimension ref="A1:L237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="C2" t="inlineStr">
@@ -519,6 +524,11 @@
           <t>Code 7</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Code 8</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="C3" t="inlineStr">
@@ -561,6 +571,11 @@
           <t>usename 7</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>usename 8</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="C4" t="inlineStr">
@@ -603,6 +618,11 @@
           <t>02:34:40</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>21:52:07</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="C5" t="inlineStr">
@@ -645,6 +665,11 @@
           <t>02:39:48</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>21:57:36</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
@@ -685,6 +710,11 @@
       <c r="K6" t="inlineStr">
         <is>
           <t>16/03/2022</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>23/03/2022</t>
         </is>
       </c>
     </row>
@@ -712,6 +742,11 @@
           <t>Ivan</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -732,6 +767,11 @@
           <t>sultanov</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -752,6 +792,11 @@
           <t>12/12/1988</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>11/11/1111</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -772,6 +817,11 @@
           <t>male</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -792,6 +842,11 @@
           <t>4234124434</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>34214231</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -812,6 +867,11 @@
           <t>686834343</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>3432432432</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -857,6 +917,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -917,6 +982,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -972,6 +1042,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -992,6 +1067,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1037,6 +1117,11 @@
           <t>G</t>
         </is>
       </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1122,6 +1207,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1142,6 +1232,11 @@
           <t>r</t>
         </is>
       </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1172,6 +1267,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1267,6 +1367,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1317,6 +1422,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1362,6 +1472,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1382,6 +1497,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1432,6 +1552,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1457,6 +1582,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1487,6 +1617,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1537,6 +1672,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1552,6 +1692,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1607,6 +1752,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2007,6 +2157,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2037,6 +2192,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2167,6 +2327,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2217,6 +2382,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2237,6 +2407,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2267,6 +2442,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2307,6 +2487,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2322,6 +2507,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2367,6 +2557,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2382,6 +2577,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2427,6 +2627,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2442,6 +2647,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2492,6 +2702,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2507,6 +2722,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2532,6 +2752,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2602,6 +2827,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2637,6 +2867,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -2673,6 +2908,11 @@
         <v>133</v>
       </c>
       <c r="D139" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>B</t>
         </is>

--- a/excel/write.xlsx
+++ b/excel/write.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E245"/>
+  <dimension ref="A1:F245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="C2" t="inlineStr">
@@ -459,6 +464,11 @@
           <t>Code 1</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Code 2</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="C3" t="inlineStr">
@@ -471,6 +481,11 @@
           <t>usename 1</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>usename 2</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="C4" t="inlineStr">
@@ -483,6 +498,11 @@
           <t>20:48:41</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10:22:01</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="C5" t="inlineStr">
@@ -495,6 +515,11 @@
           <t>20:52:16</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10:29:10</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
@@ -505,6 +530,11 @@
       <c r="E6" t="inlineStr">
         <is>
           <t>26/03/2022</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>29/03/2022</t>
         </is>
       </c>
     </row>
@@ -532,6 +562,11 @@
           <t>roman</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -552,6 +587,11 @@
           <t>matvee</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>amn</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -572,6 +612,11 @@
           <t>12/12/1998</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12/12/1998</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -592,6 +637,11 @@
           <t>male</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -612,6 +662,11 @@
           <t>432423434</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>34124324123432</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -632,6 +687,11 @@
           <t>13423143</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>12657892452</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -667,6 +727,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -782,6 +847,11 @@
           <t>H</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3132,6 +3202,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -3157,6 +3232,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -3182,6 +3262,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -3197,6 +3282,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -3232,6 +3322,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -3277,6 +3372,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -3302,6 +3402,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -3327,6 +3432,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -3352,6 +3462,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -3377,6 +3492,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -3402,6 +3522,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -3427,6 +3552,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -3452,6 +3582,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -3477,6 +3612,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -3488,6 +3628,11 @@
         </is>
       </c>
       <c r="D236" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
         <is>
           <t>A</t>
         </is>
